--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,9 +590,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.07769999999999999</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -600,103 +597,94 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.1533377270754226</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.1089727814325712</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-9.599999999999998</v>
+        <v>-524.2</v>
       </c>
       <c r="L2">
-        <v>-0.01526717557251908</v>
+        <v>-1.73003300330033</v>
       </c>
       <c r="M2">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.008955627705627705</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.6895833333333335</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.008955627705627705</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.6895833333333335</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>3577.9</v>
+        <v>3813.6</v>
       </c>
       <c r="V2">
-        <v>4.840232683982683</v>
+        <v>11.57038834951456</v>
       </c>
       <c r="W2">
-        <v>-0.03670896848639583</v>
+        <v>-0.2334550636857576</v>
       </c>
       <c r="X2">
-        <v>0.1163317285418448</v>
+        <v>0.1396363601256733</v>
       </c>
       <c r="Y2">
-        <v>-0.1530406970282406</v>
+        <v>-0.3730914238114309</v>
       </c>
       <c r="Z2">
-        <v>-1.495482920683737</v>
+        <v>0.1921345322189953</v>
       </c>
       <c r="AA2">
-        <v>0.1329057552984775</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05021416181752307</v>
+        <v>0.04654910020482791</v>
       </c>
       <c r="AC2">
-        <v>0.08269159348095438</v>
+        <v>-0.04654910020482791</v>
       </c>
       <c r="AD2">
-        <v>2331.5</v>
+        <v>1438.8</v>
       </c>
       <c r="AE2">
-        <v>687.9438139251288</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3019.443813925129</v>
+        <v>1438.8</v>
       </c>
       <c r="AG2">
-        <v>-558.4561860748709</v>
+        <v>-2374.8</v>
       </c>
       <c r="AH2">
-        <v>0.8033333200498033</v>
+        <v>0.813616828771771</v>
       </c>
       <c r="AI2">
-        <v>0.5466200558229714</v>
+        <v>0.463142985900985</v>
       </c>
       <c r="AJ2">
-        <v>-3.089766526151784</v>
+        <v>1.16115783297477</v>
       </c>
       <c r="AK2">
-        <v>-0.2869847433818856</v>
+        <v>3.358981612446958</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>56.631042020889</v>
-      </c>
-      <c r="AP2">
-        <v>-13.56463896222664</v>
       </c>
     </row>
     <row r="3">
@@ -722,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.1680790924437804</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.09571961874764441</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.8</v>
+        <v>-524.2</v>
       </c>
       <c r="L3">
-        <v>0.03099630996309963</v>
+        <v>-1.73003300330033</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +728,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,198 +737,67 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2920.2</v>
+        <v>3813.6</v>
       </c>
       <c r="V3">
-        <v>6.201316627734126</v>
+        <v>11.57038834951456</v>
       </c>
       <c r="W3">
-        <v>0.01160621761658031</v>
+        <v>-0.2334550636857576</v>
       </c>
       <c r="X3">
-        <v>0.177746385446574</v>
+        <v>0.1396363601256733</v>
       </c>
       <c r="Y3">
-        <v>-0.1661401678299937</v>
+        <v>-0.3730914238114309</v>
       </c>
       <c r="Z3">
-        <v>-2.54920075657798</v>
+        <v>0.1921345322189953</v>
       </c>
       <c r="AA3">
-        <v>0.244008524530851</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05418130126633453</v>
+        <v>0.04654910020482791</v>
       </c>
       <c r="AC3">
-        <v>0.1898272232645165</v>
+        <v>-0.04654910020482791</v>
       </c>
       <c r="AD3">
-        <v>2256.9</v>
+        <v>1438.8</v>
       </c>
       <c r="AE3">
-        <v>646.4943405226448</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2903.394340522645</v>
+        <v>1438.8</v>
       </c>
       <c r="AG3">
-        <v>-16.80565947735477</v>
+        <v>-2374.8</v>
       </c>
       <c r="AH3">
-        <v>0.8604448952941485</v>
+        <v>0.813616828771771</v>
       </c>
       <c r="AI3">
-        <v>0.5638979047331548</v>
+        <v>0.463142985900985</v>
       </c>
       <c r="AJ3">
-        <v>-0.03700918064297409</v>
+        <v>1.16115783297477</v>
       </c>
       <c r="AK3">
-        <v>-0.007540923519267996</v>
+        <v>3.358981612446958</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>59.08115183246073</v>
-      </c>
-      <c r="AP3">
-        <v>-0.4399387297736849</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arbuthnot Banking Group PLC (AIM:ARBB)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>-0.07769999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>-0.0612891092223132</v>
-      </c>
-      <c r="J4">
-        <v>-0.05220924118937791</v>
-      </c>
-      <c r="K4">
-        <v>-26.4</v>
-      </c>
-      <c r="L4">
-        <v>-0.304147465437788</v>
-      </c>
-      <c r="M4">
-        <v>6.62</v>
-      </c>
-      <c r="N4">
-        <v>0.02467387253074916</v>
-      </c>
-      <c r="O4">
-        <v>-0.2507575757575758</v>
-      </c>
-      <c r="P4">
-        <v>6.62</v>
-      </c>
-      <c r="Q4">
-        <v>0.02467387253074916</v>
-      </c>
-      <c r="R4">
-        <v>-0.2507575757575758</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>657.7</v>
-      </c>
-      <c r="V4">
-        <v>2.451360417443161</v>
-      </c>
-      <c r="W4">
-        <v>-0.08502415458937197</v>
-      </c>
-      <c r="X4">
-        <v>0.05491707163711554</v>
-      </c>
-      <c r="Y4">
-        <v>-0.1399412262264875</v>
-      </c>
-      <c r="Z4">
-        <v>-0.4176077945093709</v>
-      </c>
-      <c r="AA4">
-        <v>0.02180298606610391</v>
-      </c>
-      <c r="AB4">
-        <v>0.0462470223687116</v>
-      </c>
-      <c r="AC4">
-        <v>-0.02444403630260769</v>
-      </c>
-      <c r="AD4">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>41.44947340248393</v>
-      </c>
-      <c r="AF4">
-        <v>116.0494734024839</v>
-      </c>
-      <c r="AG4">
-        <v>-541.6505265975161</v>
-      </c>
-      <c r="AH4">
-        <v>0.3019373810380091</v>
-      </c>
-      <c r="AI4">
-        <v>0.309424440326958</v>
-      </c>
-      <c r="AJ4">
-        <v>1.981523625871947</v>
-      </c>
-      <c r="AK4">
-        <v>1.916325906474628</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>25.11784511784511</v>
-      </c>
-      <c r="AP4">
-        <v>-182.3739146792983</v>
       </c>
     </row>
   </sheetData>
